--- a/data.xlsx
+++ b/data.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -370,7 +370,7 @@
         <v>111</v>
       </c>
       <c r="B1">
-        <v>222</v>
+        <v>2221</v>
       </c>
     </row>
   </sheetData>
